--- a/readme.xlsx
+++ b/readme.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A576E55-7123-4D6E-92BA-ED6ECFC5B3A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,12 +119,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -132,6 +133,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -175,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -193,6 +201,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,6 +296,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -321,6 +348,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,21 +540,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="R6:S7"/>
+      <selection activeCell="L10" sqref="L10:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1">
         <v>2</v>
       </c>
@@ -528,7 +572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
@@ -538,11 +582,13 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="L3" t="s">
+      <c r="L3" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="3:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -552,11 +598,13 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="L4" t="s">
+      <c r="L4" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="3:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -566,14 +614,16 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="M5" t="s">
+      <c r="L5" s="8"/>
+      <c r="M5" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="N5" s="8"/>
       <c r="Q5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:18" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -584,7 +634,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
@@ -601,7 +651,7 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="8" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -611,11 +661,15 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="L8" t="s">
+      <c r="K8" s="7"/>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="3:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -625,11 +679,15 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="L9" t="s">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="3:18" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="3:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -646,7 +704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
@@ -660,7 +718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
@@ -674,7 +732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="3:18" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
@@ -685,7 +743,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
@@ -699,7 +757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -710,7 +768,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -718,11 +776,13 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="L16" t="s">
+      <c r="L16" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="3:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -730,11 +790,13 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="L17" t="s">
+      <c r="L17" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="3:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -742,11 +804,13 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="L18" t="s">
+      <c r="L18" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="3:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5" t="s">
@@ -760,7 +824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -771,7 +835,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -782,7 +846,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -792,16 +856,18 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="L22" t="s">
+      <c r="L22" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="L23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="L24" s="6" t="s">
         <v>30</v>
       </c>
